--- a/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PA40084335/Documents/ParryApplications/IntelliJ_Practice/DSASheetPractice/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BB2C85-653D-4B4A-99BB-E8FAC323BCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5790198C-E31A-BB4F-A9E9-92C4A06AB49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="500" windowWidth="34880" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2831,8 +2831,8 @@
   </sheetPr>
   <dimension ref="A1:AB919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3383,7 +3383,7 @@
         <v>23</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="39"/>
+      <c r="F16" s="42"/>
       <c r="G16">
         <v>5</v>
       </c>

--- a/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PA40084335/Documents/ParryApplications/IntelliJ_Practice/DSASheetPractice/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5790198C-E31A-BB4F-A9E9-92C4A06AB49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDA7505-3902-7944-9CCF-9A8430299D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="500" windowWidth="34880" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2831,8 +2831,8 @@
   </sheetPr>
   <dimension ref="A1:AB919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3423,7 +3423,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="39"/>
+      <c r="F17" s="42"/>
       <c r="G17">
         <v>6</v>
       </c>

--- a/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PA40084335/Documents/ParryApplications/IntelliJ_Practice/DSASheetPractice/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDA7505-3902-7944-9CCF-9A8430299D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181FD13B-0A3C-5947-9774-B1696E96FBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="500" windowWidth="34880" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="706">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -2831,8 +2831,8 @@
   </sheetPr>
   <dimension ref="A1:AB919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4322,9 +4322,7 @@
         <v>65</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="39" t="s">
-        <v>700</v>
-      </c>
+      <c r="F40" s="42"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>

--- a/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PA40084335/Documents/ParryApplications/IntelliJ_Practice/DSASheetPractice/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181FD13B-0A3C-5947-9774-B1696E96FBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DBE398-EF31-6543-9D95-528EFCC63340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="500" windowWidth="34880" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="706">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -2831,8 +2831,8 @@
   </sheetPr>
   <dimension ref="A1:AB919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4322,7 +4322,7 @@
         <v>65</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="42"/>
+      <c r="F40" s="44"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -4357,9 +4357,7 @@
         <v>67</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="39" t="s">
-        <v>700</v>
-      </c>
+      <c r="F41" s="42"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>

--- a/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PA40084335/Documents/ParryApplications/IntelliJ_Practice/DSASheetPractice/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DBE398-EF31-6543-9D95-528EFCC63340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5485B7E-E703-AF4D-B9C6-66523293739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="500" windowWidth="34880" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="706">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -2832,7 +2832,7 @@
   <dimension ref="A1:AB919"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4357,7 +4357,7 @@
         <v>67</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="42"/>
+      <c r="F41" s="44"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -4394,9 +4394,7 @@
       <c r="E42" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="39" t="s">
-        <v>700</v>
-      </c>
+      <c r="F42" s="44"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>

--- a/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PA40084335/Documents/ParryApplications/IntelliJ_Practice/DSASheetPractice/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5485B7E-E703-AF4D-B9C6-66523293739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38198A4C-C418-9542-B2F4-F5F8A88F0CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="500" windowWidth="34880" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="706">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -2831,8 +2831,8 @@
   </sheetPr>
   <dimension ref="A1:AB919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4312,6 +4312,9 @@
       <c r="AB39" s="2"/>
     </row>
     <row r="40" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
       <c r="B40" s="5" t="s">
         <v>63</v>
       </c>
@@ -4323,7 +4326,9 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="44"/>
-      <c r="G40" s="2"/>
+      <c r="G40">
+        <v>1</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -4347,6 +4352,9 @@
       <c r="AB40" s="2"/>
     </row>
     <row r="41" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2</v>
+      </c>
       <c r="B41" s="5" t="s">
         <v>63</v>
       </c>
@@ -4358,7 +4366,9 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="44"/>
-      <c r="G41" s="2"/>
+      <c r="G41">
+        <v>2</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -4382,6 +4392,9 @@
       <c r="AB41" s="2"/>
     </row>
     <row r="42" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
       <c r="B42" s="5" t="s">
         <v>63</v>
       </c>
@@ -4395,7 +4408,9 @@
         <v>69</v>
       </c>
       <c r="F42" s="44"/>
-      <c r="G42" s="2"/>
+      <c r="G42">
+        <v>3</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -4419,6 +4434,9 @@
       <c r="AB42" s="2"/>
     </row>
     <row r="43" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4</v>
+      </c>
       <c r="B43" s="5" t="s">
         <v>63</v>
       </c>
@@ -4429,10 +4447,10 @@
         <v>71</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="39" t="s">
-        <v>700</v>
-      </c>
-      <c r="G43" s="2"/>
+      <c r="F43" s="44"/>
+      <c r="G43">
+        <v>4</v>
+      </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -4456,6 +4474,9 @@
       <c r="AB43" s="2"/>
     </row>
     <row r="44" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>5</v>
+      </c>
       <c r="B44" s="5" t="s">
         <v>63</v>
       </c>
@@ -4469,7 +4490,9 @@
       <c r="F44" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44">
+        <v>5</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -4493,6 +4516,9 @@
       <c r="AB44" s="2"/>
     </row>
     <row r="45" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>6</v>
+      </c>
       <c r="B45" s="5" t="s">
         <v>63</v>
       </c>
@@ -4506,7 +4532,9 @@
       <c r="F45" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G45" s="2"/>
+      <c r="G45">
+        <v>6</v>
+      </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -4530,6 +4558,9 @@
       <c r="AB45" s="2"/>
     </row>
     <row r="46" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>7</v>
+      </c>
       <c r="B46" s="5" t="s">
         <v>63</v>
       </c>
@@ -4543,7 +4574,9 @@
       <c r="F46" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G46" s="2"/>
+      <c r="G46">
+        <v>7</v>
+      </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -4567,6 +4600,9 @@
       <c r="AB46" s="2"/>
     </row>
     <row r="47" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>8</v>
+      </c>
       <c r="B47" s="8" t="s">
         <v>63</v>
       </c>
@@ -4580,7 +4616,9 @@
       <c r="F47" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G47" s="2"/>
+      <c r="G47">
+        <v>8</v>
+      </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -4604,6 +4642,9 @@
       <c r="AB47" s="2"/>
     </row>
     <row r="48" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>9</v>
+      </c>
       <c r="B48" s="8" t="s">
         <v>63</v>
       </c>
@@ -4617,7 +4658,9 @@
       <c r="F48" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G48" s="2"/>
+      <c r="G48">
+        <v>9</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -4640,7 +4683,10 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>10</v>
+      </c>
       <c r="B49" s="8" t="s">
         <v>63</v>
       </c>
@@ -4654,7 +4700,9 @@
       <c r="F49" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49">
+        <v>10</v>
+      </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -4677,7 +4725,10 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>11</v>
+      </c>
       <c r="B50" s="8" t="s">
         <v>63</v>
       </c>
@@ -4691,7 +4742,9 @@
       <c r="F50" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G50" s="2"/>
+      <c r="G50">
+        <v>11</v>
+      </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -4714,7 +4767,10 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>12</v>
+      </c>
       <c r="B51" s="8" t="s">
         <v>63</v>
       </c>
@@ -4728,7 +4784,9 @@
       <c r="F51" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G51" s="2"/>
+      <c r="G51">
+        <v>12</v>
+      </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -4751,7 +4809,10 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>13</v>
+      </c>
       <c r="B52" s="8" t="s">
         <v>63</v>
       </c>
@@ -4765,7 +4826,9 @@
       <c r="F52" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G52" s="2"/>
+      <c r="G52">
+        <v>13</v>
+      </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -4788,7 +4851,10 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>14</v>
+      </c>
       <c r="B53" s="8" t="s">
         <v>63</v>
       </c>
@@ -4802,7 +4868,9 @@
       <c r="F53" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G53" s="2"/>
+      <c r="G53">
+        <v>14</v>
+      </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -4825,7 +4893,10 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>15</v>
+      </c>
       <c r="B54" s="8" t="s">
         <v>63</v>
       </c>
@@ -4839,7 +4910,9 @@
       <c r="F54" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G54" s="2"/>
+      <c r="G54">
+        <v>15</v>
+      </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -4862,7 +4935,10 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
     </row>
-    <row r="55" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>16</v>
+      </c>
       <c r="B55" s="8" t="s">
         <v>63</v>
       </c>
@@ -4876,7 +4952,9 @@
       <c r="F55" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G55" s="2"/>
+      <c r="G55">
+        <v>16</v>
+      </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -4899,7 +4977,10 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
     </row>
-    <row r="56" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>17</v>
+      </c>
       <c r="B56" s="8" t="s">
         <v>63</v>
       </c>
@@ -4913,7 +4994,9 @@
       <c r="F56" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G56" s="2"/>
+      <c r="G56">
+        <v>17</v>
+      </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -4936,7 +5019,10 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>18</v>
+      </c>
       <c r="B57" s="8" t="s">
         <v>63</v>
       </c>
@@ -4950,7 +5036,9 @@
       <c r="F57" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G57" s="2"/>
+      <c r="G57">
+        <v>18</v>
+      </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -4973,7 +5061,10 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
     </row>
-    <row r="58" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>19</v>
+      </c>
       <c r="B58" s="8" t="s">
         <v>63</v>
       </c>
@@ -4987,7 +5078,9 @@
       <c r="F58" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G58" s="2"/>
+      <c r="G58">
+        <v>19</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -5010,7 +5103,10 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
     </row>
-    <row r="59" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>20</v>
+      </c>
       <c r="B59" s="9" t="s">
         <v>63</v>
       </c>
@@ -5024,7 +5120,9 @@
       <c r="F59" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G59" s="2"/>
+      <c r="G59">
+        <v>20</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -5047,7 +5145,10 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
     </row>
-    <row r="60" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>21</v>
+      </c>
       <c r="B60" s="9" t="s">
         <v>63</v>
       </c>
@@ -5061,7 +5162,9 @@
       <c r="F60" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G60" s="2"/>
+      <c r="G60">
+        <v>21</v>
+      </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -5084,7 +5187,10 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
     </row>
-    <row r="61" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>22</v>
+      </c>
       <c r="B61" s="9" t="s">
         <v>63</v>
       </c>
@@ -5100,7 +5206,9 @@
       <c r="F61" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G61" s="2"/>
+      <c r="G61">
+        <v>22</v>
+      </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -5123,7 +5231,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
     </row>
-    <row r="62" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="16"/>
       <c r="C62" s="17"/>
       <c r="D62" s="18"/>
@@ -5131,7 +5239,9 @@
       <c r="F62" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="G62" s="2"/>
+      <c r="G62">
+        <v>23</v>
+      </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -5154,7 +5264,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
     </row>
-    <row r="63" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" s="16"/>
       <c r="C63" s="17"/>
       <c r="D63" s="18"/>
@@ -5183,7 +5293,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
     </row>
-    <row r="64" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" s="8" t="s">
         <v>107</v>
       </c>

--- a/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PA40084335/Documents/ParryApplications/IntelliJ_Practice/DSASheetPractice/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PA40084335/Documents/ParryApplications/FullStack Roadmap Practice/Backend (Java &amp; Spring)/DSASheetPractice/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38198A4C-C418-9542-B2F4-F5F8A88F0CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EA4A7A-55E7-5F44-B010-270D968E2149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="500" windowWidth="34880" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2380" yWindow="500" windowWidth="35820" windowHeight="21880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSA in 2.5 Months" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,16 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{A2FC19DB-909B-4030-B2C2-F31C9B72C5DC}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{7F344D43-7868-40B3-9097-AEF176B3194E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{506D7840-D91F-4215-91FA-E391829E2303}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{FA99C533-7283-4917-B47A-8ACF4F782944}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{506D7840-D91F-4215-91FA-E391829E2303}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{7F344D43-7868-40B3-9097-AEF176B3194E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{A2FC19DB-909B-4030-B2C2-F31C9B72C5DC}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="706">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -2596,6 +2596,7 @@
     <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2606,7 +2607,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2831,8 +2831,8 @@
   </sheetPr>
   <dimension ref="A1:AB919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2846,11 +2846,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="25" x14ac:dyDescent="0.2">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2877,11 +2877,11 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2906,9 +2906,9 @@
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2937,9 +2937,9 @@
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3036,7 +3036,7 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="2"/>
@@ -3071,7 +3071,7 @@
       <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -3164,7 +3164,7 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="45" t="s">
         <v>705</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -3182,7 +3182,7 @@
       <c r="F11" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="45" t="s">
         <v>705</v>
       </c>
       <c r="H11" s="2"/>
@@ -4487,9 +4487,7 @@
         <v>73</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="39" t="s">
-        <v>700</v>
-      </c>
+      <c r="F44" s="44"/>
       <c r="G44">
         <v>5</v>
       </c>
@@ -32562,21 +32560,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A2FC19DB-909B-4030-B2C2-F31C9B72C5DC}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{506D7840-D91F-4215-91FA-E391829E2303}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{C8330CEA-88E9-DC44-9127-9D9D9122D8E3}"/>
+      <autoFilter ref="A11:C37" xr:uid="{839C3AE7-A9B8-A24A-B8D1-BAB623BD2336}"/>
+    </customSheetView>
+    <customSheetView guid="{7F344D43-7868-40B3-9097-AEF176B3194E}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{A190677E-EE76-8E4A-BD83-C925B2A2F663}"/>
     </customSheetView>
     <customSheetView guid="{FA99C533-7283-4917-B47A-8ACF4F782944}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{301FAC8B-8A93-094C-9EC2-1CBCD33D2136}"/>
+      <autoFilter ref="A11:D37" xr:uid="{C86C859B-A666-FC49-8128-AB9EE3631BDE}"/>
     </customSheetView>
-    <customSheetView guid="{7F344D43-7868-40B3-9097-AEF176B3194E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A2FC19DB-909B-4030-B2C2-F31C9B72C5DC}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{AD4687E1-6470-964E-82BF-38802464F5EC}"/>
-    </customSheetView>
-    <customSheetView guid="{506D7840-D91F-4215-91FA-E391829E2303}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{74073A75-8FFD-F74E-AD56-9211AAE99416}"/>
+      <autoFilter ref="A293:C332" xr:uid="{ECDD3328-3DA3-C84A-AC27-4C4F03768CB0}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -32988,28 +32986,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>

--- a/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PA40084335/Documents/ParryApplications/FullStack Roadmap Practice/Backend (Java &amp; Spring)/DSASheetPractice/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EA4A7A-55E7-5F44-B010-270D968E2149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A963B41-0BAE-284A-BF42-EF95E0AC3281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="500" windowWidth="35820" windowHeight="21880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="706">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -2832,7 +2832,7 @@
   <dimension ref="A1:AB919"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4527,9 +4527,7 @@
         <v>75</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="39" t="s">
-        <v>700</v>
-      </c>
+      <c r="F45" s="44"/>
       <c r="G45">
         <v>6</v>
       </c>

--- a/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/src/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PA40084335/Documents/ParryApplications/FullStack Roadmap Practice/Backend (Java &amp; Spring)/DSASheetPractice/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A963B41-0BAE-284A-BF42-EF95E0AC3281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504A041D-145C-6449-91BF-2BB306EFD095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="500" windowWidth="35820" windowHeight="21880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="706">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -2832,7 +2832,7 @@
   <dimension ref="A1:AB919"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4567,9 +4567,7 @@
         <v>77</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="39" t="s">
-        <v>700</v>
-      </c>
+      <c r="F46" s="44"/>
       <c r="G46">
         <v>7</v>
       </c>
